--- a/Demo/Data/0_no_loc/data/TestComposeKey.xlsx
+++ b/Demo/Data/0_no_loc/data/TestComposeKey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\ExportExcel\TestData\0_no_loc\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\ExportExcel\Demo\Data\0_no_loc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFF18A6-1CF2-41E4-A9A0-172BF7786181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBAF88F-8B7C-40E5-9B99-2B7D63762D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestComposeKey" sheetId="1" r:id="rId1"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>float_float_float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>位置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -126,6 +122,11 @@
   </si>
   <si>
     <t>1;2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float_float_float
+Alias[V3]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -282,9 +283,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -322,7 +323,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -428,7 +429,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -570,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -585,7 +586,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -593,6 +594,7 @@
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
     <col min="5" max="5" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -610,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -624,10 +626,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -641,10 +643,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -658,10 +660,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -675,10 +677,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -692,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -700,36 +702,36 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:D1 A3:D3 F3:XFD3 F1:XFD1">
+  <conditionalFormatting sqref="A1:D1 A3:D3">
     <cfRule type="expression" dxfId="7" priority="19">
       <formula>公式单元格=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576 D2">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="紫色">
-      <formula>NOT(ISERROR(SEARCH("紫色",C1)))</formula>
+  <conditionalFormatting sqref="A1:E1 E1:E1048576 A3:E3">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="紫色">
+      <formula>NOT(ISERROR(SEARCH("紫色",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="灰色">
-      <formula>NOT(ISERROR(SEARCH("灰色",C1)))</formula>
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="灰色">
+      <formula>NOT(ISERROR(SEARCH("灰色",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="绿色">
-      <formula>NOT(ISERROR(SEARCH("绿色",C1)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="绿色">
+      <formula>NOT(ISERROR(SEARCH("绿色",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E4 A1:E1 A3:E3">
+  <conditionalFormatting sqref="A1:XFD1 A3:XFD3 E3:E4">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>公式单元格=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576 A1:E1 A3:E3">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="紫色">
-      <formula>NOT(ISERROR(SEARCH("紫色",A1)))</formula>
+  <conditionalFormatting sqref="C1:C1048576 D2">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="紫色">
+      <formula>NOT(ISERROR(SEARCH("紫色",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="灰色">
-      <formula>NOT(ISERROR(SEARCH("灰色",A1)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="灰色">
+      <formula>NOT(ISERROR(SEARCH("灰色",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="绿色">
-      <formula>NOT(ISERROR(SEARCH("绿色",A1)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="绿色">
+      <formula>NOT(ISERROR(SEARCH("绿色",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demo/Data/0_no_loc/data/TestComposeKey.xlsx
+++ b/Demo/Data/0_no_loc/data/TestComposeKey.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\ExportExcel\Demo\Data\0_no_loc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBAF88F-8B7C-40E5-9B99-2B7D63762D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DC7F86-4FF5-4E1D-B572-B3A9E0A19DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -76,11 +76,6 @@
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint
-PK[Level]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -128,30 +123,43 @@
     <t>float_float_float
 Alias[V3]</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>uint
+PK[Level,Gender]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -580,25 +588,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="5" width="32.375" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16.5">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -606,33 +614,39 @@
         <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="29.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="16.5">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -640,74 +654,86 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:D1 A3:D3">
+  <conditionalFormatting sqref="A1:E1 A3:E3">
     <cfRule type="expression" dxfId="7" priority="19">
       <formula>公式单元格=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1 E1:E1048576 A3:E3">
+  <conditionalFormatting sqref="A1:F1 F1:F1048576 A3:F3">
     <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="紫色">
       <formula>NOT(ISERROR(SEARCH("紫色",A1)))</formula>
     </cfRule>
@@ -718,20 +744,20 @@
       <formula>NOT(ISERROR(SEARCH("绿色",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 A3:XFD3 E3:E4">
+  <conditionalFormatting sqref="A1:XFD1 A3:XFD3 F3:F4">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>公式单元格=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576 D2">
+  <conditionalFormatting sqref="D1:D1048576 E2">
     <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="紫色">
-      <formula>NOT(ISERROR(SEARCH("紫色",C1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("紫色",D1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="灰色">
-      <formula>NOT(ISERROR(SEARCH("灰色",C1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("灰色",D1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="绿色">
-      <formula>NOT(ISERROR(SEARCH("绿色",C1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("绿色",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
